--- a/N. Umpqua 2024 Temperature Summary.xlsx
+++ b/N. Umpqua 2024 Temperature Summary.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\NUmpqua_TempAnalysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E710D8B9-8C5B-4633-83F1-7F3560B0CF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3810" yWindow="2115" windowWidth="21600" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="MDMTDaysAbove20" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="AirWater Regressions" sheetId="2" r:id="rId5"/>
+    <sheet name="MDMTDaysAbove20" sheetId="1" r:id="rId1"/>
+    <sheet name="AirWater Regressions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -28,17 +37,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">MDMT [°C] </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
       </rPr>
       <t>(June 20 - Sept. 15)</t>
     </r>
@@ -46,18 +57,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"># Days Max Daily Above 20°C </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b val="0"/>
-        <i/>
-        <color theme="1"/>
       </rPr>
       <t>(June 20 - Sept. 15)</t>
     </r>
@@ -141,75 +153,89 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="&quot;DejaVu Sans&quot;"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FFB0B0B0"/>
       <name val="&quot;DejaVu Sans&quot;"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="&quot;DejaVu Sans&quot;"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="&quot;Lucida Console&quot;"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="&quot;⋞jaVu Sans\&quot;&quot;"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -217,102 +243,106 @@
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFD6DADC"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFD6DADC"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -502,27 +532,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="20.63"/>
-    <col customWidth="1" min="5" max="5" width="24.63"/>
-    <col customWidth="1" min="6" max="6" width="25.25"/>
-    <col customWidth="1" min="12" max="12" width="18.0"/>
-    <col customWidth="1" min="13" max="13" width="18.13"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -550,24 +583,24 @@
         <v>7</v>
       </c>
       <c r="C2" s="4">
-        <v>43.26677</v>
+        <v>43.266770000000001</v>
       </c>
       <c r="D2" s="4">
         <v>-122.5198</v>
       </c>
       <c r="E2" s="4">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:18">
       <c r="A3" s="4">
-        <v>2.1679163E7</v>
+        <v>21679163</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -579,10 +612,10 @@
         <v>-122.4706</v>
       </c>
       <c r="E3" s="4">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F3" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -597,15 +630,15 @@
         <v>-122.4706</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:18">
       <c r="A4" s="4">
-        <v>2.1433141E7</v>
+        <v>21433141</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4">
-        <v>43.34426</v>
+        <v>43.344259999999998</v>
       </c>
       <c r="D4" s="4">
         <v>-122.736</v>
@@ -614,7 +647,7 @@
         <v>19.39</v>
       </c>
       <c r="F4" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="6"/>
@@ -624,30 +657,30 @@
       <c r="O4" s="7"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="4">
-        <v>43.22949</v>
+        <v>43.229489999999998</v>
       </c>
       <c r="R4" s="4">
-        <v>-122.4475</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>-122.44750000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="4">
-        <v>2.1433145E7</v>
+        <v>21433145</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>43.34408</v>
+        <v>43.344079999999998</v>
       </c>
       <c r="D5" s="4">
-        <v>-122.7412</v>
+        <v>-122.74120000000001</v>
       </c>
       <c r="E5" s="4">
         <v>19.95</v>
       </c>
       <c r="F5" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="6"/>
@@ -657,30 +690,30 @@
       <c r="O5" s="7"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="4">
-        <v>43.2668</v>
+        <v>43.266800000000003</v>
       </c>
       <c r="R5" s="4">
-        <v>-122.5195</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>-122.51949999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="4">
-        <v>2.1679171E7</v>
+        <v>21679171</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4">
-        <v>43.4222</v>
+        <v>43.422199999999997</v>
       </c>
       <c r="D6" s="4">
-        <v>-122.6008</v>
+        <v>-122.60080000000001</v>
       </c>
       <c r="E6" s="4">
         <v>20.72</v>
       </c>
       <c r="F6" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="6"/>
@@ -690,13 +723,13 @@
       <c r="O6" s="7"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="4">
-        <v>43.29146</v>
+        <v>43.291460000000001</v>
       </c>
       <c r="R6" s="4">
         <v>-122.5455</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:18">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -704,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="4">
-        <v>43.33228</v>
+        <v>43.332279999999997</v>
       </c>
       <c r="D7" s="4">
         <v>-123.002</v>
@@ -713,7 +746,7 @@
         <v>21.4</v>
       </c>
       <c r="F7" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="6"/>
@@ -723,30 +756,30 @@
       <c r="O7" s="7"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="4">
-        <v>43.4222</v>
+        <v>43.422199999999997</v>
       </c>
       <c r="R7" s="4">
-        <v>-122.6008</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>-122.60080000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="4">
-        <v>2.1679182E7</v>
+        <v>21679182</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="4">
-        <v>43.2668</v>
+        <v>43.266800000000003</v>
       </c>
       <c r="D8" s="4">
-        <v>-122.5195</v>
+        <v>-122.51949999999999</v>
       </c>
       <c r="E8" s="4">
         <v>22.05</v>
       </c>
       <c r="F8" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="6"/>
@@ -756,21 +789,21 @@
       <c r="O8" s="7"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="4">
-        <v>43.42354</v>
+        <v>43.423540000000003</v>
       </c>
       <c r="R8" s="4">
         <v>-122.6005</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:18">
       <c r="A9" s="4">
-        <v>2.1679177E7</v>
+        <v>21679177</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="4">
-        <v>43.4164</v>
+        <v>43.416400000000003</v>
       </c>
       <c r="D9" s="4">
         <v>-122.7799</v>
@@ -779,7 +812,7 @@
         <v>22.52</v>
       </c>
       <c r="F9" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="6"/>
@@ -795,9 +828,9 @@
         <v>-122.6037</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:18">
       <c r="A10" s="4">
-        <v>2.1679175E7</v>
+        <v>21679175</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>16</v>
@@ -812,7 +845,7 @@
         <v>22.91</v>
       </c>
       <c r="F10" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="6"/>
@@ -822,21 +855,21 @@
       <c r="O10" s="7"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="4">
-        <v>43.4164</v>
+        <v>43.416400000000003</v>
       </c>
       <c r="R10" s="4">
         <v>-122.7799</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:18">
       <c r="A11" s="4">
-        <v>2.1679176E7</v>
+        <v>21679176</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="4">
-        <v>43.34978</v>
+        <v>43.349780000000003</v>
       </c>
       <c r="D11" s="4">
         <v>-122.7299</v>
@@ -845,7 +878,7 @@
         <v>23.12</v>
       </c>
       <c r="F11" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="6"/>
@@ -855,13 +888,13 @@
       <c r="O11" s="7"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="4">
-        <v>43.34978</v>
+        <v>43.349780000000003</v>
       </c>
       <c r="R11" s="4">
         <v>-122.7299</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:18">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -869,16 +902,16 @@
         <v>19</v>
       </c>
       <c r="C12" s="4">
-        <v>43.34983</v>
+        <v>43.349829999999997</v>
       </c>
       <c r="D12" s="4">
         <v>-122.7289</v>
       </c>
       <c r="E12" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="F12" s="4">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="6"/>
@@ -891,18 +924,18 @@
         <v>43.34975</v>
       </c>
       <c r="R12" s="4">
-        <v>-122.7292</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>-122.72920000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="4">
-        <v>2.167918E7</v>
+        <v>21679180</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="4">
-        <v>43.42354</v>
+        <v>43.423540000000003</v>
       </c>
       <c r="D13" s="4">
         <v>-122.6005</v>
@@ -911,7 +944,7 @@
         <v>25.27</v>
       </c>
       <c r="F13" s="4">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="6"/>
@@ -921,15 +954,15 @@
       <c r="O13" s="7"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="4">
-        <v>43.34426</v>
+        <v>43.344259999999998</v>
       </c>
       <c r="R13" s="4">
         <v>-122.736</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:18">
       <c r="A14" s="4">
-        <v>2.1679164E7</v>
+        <v>21679164</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -938,13 +971,13 @@
         <v>43.34975</v>
       </c>
       <c r="D14" s="4">
-        <v>-122.7292</v>
+        <v>-122.72920000000001</v>
       </c>
       <c r="E14" s="4">
         <v>26.38</v>
       </c>
       <c r="F14" s="4">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="6"/>
@@ -954,13 +987,13 @@
       <c r="O14" s="7"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="4">
-        <v>43.34528</v>
+        <v>43.345280000000002</v>
       </c>
       <c r="R14" s="4">
         <v>-122.7368</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:18">
       <c r="J15" s="9"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -969,13 +1002,13 @@
       <c r="O15" s="7"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="4">
-        <v>43.34408</v>
+        <v>43.344079999999998</v>
       </c>
       <c r="R15" s="4">
-        <v>-122.7412</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>-122.74120000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="J16" s="9"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -984,13 +1017,13 @@
       <c r="O16" s="7"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="4">
-        <v>43.26677</v>
+        <v>43.266770000000001</v>
       </c>
       <c r="R16" s="4">
         <v>-122.5198</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="10:18">
       <c r="J17" s="9"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -999,13 +1032,13 @@
       <c r="O17" s="7"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="4">
-        <v>43.34983</v>
+        <v>43.349829999999997</v>
       </c>
       <c r="R17" s="4">
         <v>-122.7289</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="10:18">
       <c r="J18" s="9"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -1014,41 +1047,53 @@
       <c r="O18" s="7"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="4">
-        <v>43.33228</v>
+        <v>43.332279999999997</v>
       </c>
       <c r="R18" s="4">
         <v>-123.002</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.5"/>
-    <col customWidth="1" min="2" max="2" width="20.63"/>
-    <col customWidth="1" min="3" max="3" width="6.5"/>
-    <col customWidth="1" min="4" max="4" width="7.0"/>
-    <col customWidth="1" min="5" max="5" width="9.5"/>
-    <col customWidth="1" min="6" max="6" width="18.88"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,73 +1125,73 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
-        <v>2.1433141E7</v>
+        <v>21433141</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4">
-        <v>43.34426</v>
+        <v>43.344259999999998</v>
       </c>
       <c r="D4" s="4">
         <v>-122.736</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="14">
         <v>10.04767</v>
       </c>
-      <c r="F4" s="12">
-        <v>0.21013</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="F4" s="15">
+        <v>0.21013000000000001</v>
+      </c>
+      <c r="G4" s="15">
         <v>0.3357</v>
       </c>
-      <c r="H4" s="13">
-        <v>1.396</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0.5859628</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="H4" s="16">
+        <v>1.3959999999999999</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0.58596280000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
-        <v>2.1433145E7</v>
+        <v>21433145</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>43.34408</v>
+        <v>43.344079999999998</v>
       </c>
       <c r="D5" s="4">
-        <v>-122.7412</v>
-      </c>
-      <c r="E5" s="12">
+        <v>-122.74120000000001</v>
+      </c>
+      <c r="E5" s="15">
         <v>10.45234</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="15">
         <v>0.21192</v>
       </c>
-      <c r="G5" s="12">
-        <v>0.3186</v>
-      </c>
-      <c r="H5" s="13">
+      <c r="G5" s="15">
+        <v>0.31859999999999999</v>
+      </c>
+      <c r="H5" s="16">
         <v>1.462</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0.5713564</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="I5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0.57135639999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
-        <v>2.1679164E7</v>
+        <v>21679164</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
@@ -1155,30 +1200,30 @@
         <v>43.34975</v>
       </c>
       <c r="D6" s="4">
-        <v>-122.7292</v>
-      </c>
-      <c r="E6" s="12">
+        <v>-122.72920000000001</v>
+      </c>
+      <c r="E6" s="15">
         <v>12.00726</v>
       </c>
-      <c r="F6" s="12">
-        <v>0.32512</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0.4151</v>
-      </c>
-      <c r="H6" s="13">
-        <v>1.828</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0.6494693</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="F6" s="15">
+        <v>0.32512000000000002</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.41510000000000002</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0.64946930000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="4">
-        <v>2.1679175E7</v>
+        <v>21679175</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>16</v>
@@ -1189,156 +1234,156 @@
       <c r="D7" s="4">
         <v>-122.6037</v>
       </c>
-      <c r="E7" s="12">
-        <v>9.66715</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0.29328</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0.4594</v>
-      </c>
-      <c r="H7" s="13">
-        <v>1.509</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0.6823702</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" s="15">
+        <v>9.6671499999999995</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.29327999999999999</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.45939999999999998</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1.5089999999999999</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0.68237020000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="4">
-        <v>2.167918E7</v>
+        <v>21679180</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="4">
-        <v>43.42354</v>
+        <v>43.423540000000003</v>
       </c>
       <c r="D8" s="4">
         <v>-122.6005</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="15">
         <v>11.92029</v>
       </c>
-      <c r="F8" s="12">
-        <v>0.30038</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0.4601</v>
-      </c>
-      <c r="H8" s="13">
+      <c r="F8" s="15">
+        <v>0.30037999999999998</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.46010000000000001</v>
+      </c>
+      <c r="H8" s="16">
         <v>1.544</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0.6828352</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="I8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0.68283519999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="4">
-        <v>2.1679171E7</v>
+        <v>21679171</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4">
-        <v>43.4222</v>
+        <v>43.422199999999997</v>
       </c>
       <c r="D9" s="4">
-        <v>-122.6008</v>
-      </c>
-      <c r="E9" s="12">
-        <v>8.22236</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0.28393</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0.5083</v>
-      </c>
-      <c r="H9" s="13">
-        <v>1.326</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0.7168998</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>-122.60080000000001</v>
+      </c>
+      <c r="E9" s="15">
+        <v>8.2223600000000001</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.28393000000000002</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.50829999999999997</v>
+      </c>
+      <c r="H9" s="16">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0.71689979999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="4">
-        <v>2.1679176E7</v>
+        <v>21679176</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="4">
-        <v>43.34978</v>
+        <v>43.349780000000003</v>
       </c>
       <c r="D10" s="4">
         <v>-122.7299</v>
       </c>
-      <c r="E10" s="12">
-        <v>12.45267</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="E10" s="15">
+        <v>12.452669999999999</v>
+      </c>
+      <c r="F10" s="15">
         <v>0.24559</v>
       </c>
-      <c r="G10" s="12">
-        <v>0.4198</v>
-      </c>
-      <c r="H10" s="13">
-        <v>1.368</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0.6530607</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="G10" s="15">
+        <v>0.41980000000000001</v>
+      </c>
+      <c r="H10" s="16">
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0.65306070000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="4">
-        <v>2.1679177E7</v>
+        <v>21679177</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="4">
-        <v>43.4164</v>
+        <v>43.416400000000003</v>
       </c>
       <c r="D11" s="4">
         <v>-122.7799</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="15">
         <v>11.12598</v>
       </c>
-      <c r="F11" s="12">
-        <v>0.26575</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0.5127</v>
-      </c>
-      <c r="H11" s="13">
+      <c r="F11" s="15">
+        <v>0.26574999999999999</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.51270000000000004</v>
+      </c>
+      <c r="H11" s="16">
         <v>1.23</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0.719913</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="I11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0.71991300000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="4">
-        <v>2.1679163E7</v>
+        <v>21679163</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
@@ -1349,58 +1394,58 @@
       <c r="D12" s="4">
         <v>-122.4706</v>
       </c>
-      <c r="E12" s="12">
-        <v>9.82328</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0.19526</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0.3832</v>
-      </c>
-      <c r="H12" s="13">
-        <v>1.172</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0.6247238</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" s="15">
+        <v>9.8232800000000005</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.19525999999999999</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.38319999999999999</v>
+      </c>
+      <c r="H12" s="16">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0.62472380000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="4">
-        <v>2.1679182E7</v>
+        <v>21679182</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="4">
-        <v>43.2668</v>
+        <v>43.266800000000003</v>
       </c>
       <c r="D13" s="4">
-        <v>-122.5195</v>
-      </c>
-      <c r="E13" s="12">
-        <v>9.84339</v>
-      </c>
-      <c r="F13" s="12">
+        <v>-122.51949999999999</v>
+      </c>
+      <c r="E13" s="15">
+        <v>9.8433899999999994</v>
+      </c>
+      <c r="F13" s="15">
         <v>0.28819</v>
       </c>
-      <c r="G13" s="12">
-        <v>0.4363</v>
-      </c>
-      <c r="H13" s="13">
-        <v>1.553</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0.66538</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="G13" s="15">
+        <v>0.43630000000000002</v>
+      </c>
+      <c r="H13" s="16">
+        <v>1.5529999999999999</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0.66537999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -1408,31 +1453,31 @@
         <v>7</v>
       </c>
       <c r="C14" s="4">
-        <v>43.26677</v>
+        <v>43.266770000000001</v>
       </c>
       <c r="D14" s="4">
         <v>-122.5198</v>
       </c>
-      <c r="E14" s="12">
-        <v>9.97794</v>
-      </c>
-      <c r="F14" s="12">
+      <c r="E14" s="15">
+        <v>9.9779400000000003</v>
+      </c>
+      <c r="F14" s="15">
         <v>0.12827</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="15">
         <v>0.2954</v>
       </c>
-      <c r="H14" s="13">
-        <v>0.9332</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0.5509127</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="H14" s="16">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0.55091270000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1440,31 +1485,31 @@
         <v>19</v>
       </c>
       <c r="C15" s="4">
-        <v>43.34983</v>
+        <v>43.349829999999997</v>
       </c>
       <c r="D15" s="4">
         <v>-122.7289</v>
       </c>
-      <c r="E15" s="12">
-        <v>11.99459</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0.29638</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0.4317</v>
-      </c>
-      <c r="H15" s="13">
-        <v>1.612</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0.6619574</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15" s="15">
+        <v>11.994590000000001</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0.29637999999999998</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.43169999999999997</v>
+      </c>
+      <c r="H15" s="16">
+        <v>1.6120000000000001</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0.66195740000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1472,36 +1517,45 @@
         <v>13</v>
       </c>
       <c r="C16" s="4">
-        <v>43.33228</v>
+        <v>43.332279999999997</v>
       </c>
       <c r="D16" s="4">
         <v>-123.002</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="15">
         <v>11.1852</v>
       </c>
-      <c r="F16" s="12">
-        <v>0.23103</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0.4316</v>
-      </c>
-      <c r="H16" s="13">
+      <c r="F16" s="15">
+        <v>0.23103000000000001</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0.43159999999999998</v>
+      </c>
+      <c r="H16" s="16">
         <v>1.256</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0.6619435</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="10" t="s">
+      <c r="I16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0.66194350000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1514,124 +1568,124 @@
       <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10">
       <c r="A21" s="4">
-        <v>2.1433141E7</v>
+        <v>21433141</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="4">
-        <v>43.34426</v>
+        <v>43.344259999999998</v>
       </c>
       <c r="D21" s="4">
         <v>-122.736</v>
       </c>
-      <c r="E21" s="11">
-        <v>7.03363</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0.38474</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0.6595</v>
-      </c>
-      <c r="H21" s="13">
-        <v>0.7723</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0.8145246</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="E21" s="14">
+        <v>7.0336299999999996</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0.38474000000000003</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0.65949999999999998</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0.77229999999999999</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0.81452460000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="12.75">
       <c r="A22" s="4">
-        <v>2.1433145E7</v>
+        <v>21433145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="4">
-        <v>43.34408</v>
+        <v>43.344079999999998</v>
       </c>
       <c r="D22" s="4">
-        <v>-122.7412</v>
-      </c>
-      <c r="E22" s="11">
-        <v>7.18465</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0.40413</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0.6325</v>
-      </c>
-      <c r="H22" s="13">
-        <v>0.8603</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="11">
-        <v>0.7979711</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="14">
-        <v>2.1679164E7</v>
-      </c>
-      <c r="B23" s="15" t="s">
+        <v>-122.74120000000001</v>
+      </c>
+      <c r="E22" s="14">
+        <v>7.1846500000000004</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0.40412999999999999</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0.63249999999999995</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0.86029999999999995</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="14">
+        <v>0.79797110000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="12.75">
+      <c r="A23" s="10">
+        <v>21679164</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="4">
         <v>43.34975</v>
       </c>
-      <c r="D23" s="14">
-        <v>-122.7292</v>
-      </c>
-      <c r="E23" s="16">
+      <c r="D23" s="10">
+        <v>-122.72920000000001</v>
+      </c>
+      <c r="E23" s="19">
         <v>7.44</v>
       </c>
-      <c r="F23" s="16">
-        <v>0.619</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0.7176</v>
-      </c>
-      <c r="H23" s="13">
+      <c r="F23" s="19">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0.71760000000000002</v>
+      </c>
+      <c r="H23" s="16">
         <v>1.085</v>
       </c>
-      <c r="I23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="16">
-        <v>0.849</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="I23" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="19">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="12.75">
       <c r="A24" s="4">
-        <v>2.1679175E7</v>
+        <v>21679175</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>16</v>
@@ -1642,156 +1696,156 @@
       <c r="D24" s="4">
         <v>-122.6037</v>
       </c>
-      <c r="E24" s="11">
-        <v>6.57577</v>
-      </c>
-      <c r="F24" s="11">
-        <v>0.49055</v>
-      </c>
-      <c r="G24" s="11">
-        <v>0.7308</v>
-      </c>
-      <c r="H24" s="13">
-        <v>0.8325</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="11">
-        <v>0.8566989</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="E24" s="14">
+        <v>6.5757700000000003</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0.49054999999999999</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.73080000000000001</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0.85669890000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="12.75">
       <c r="A25" s="4">
-        <v>2.167918E7</v>
+        <v>21679180</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="4">
-        <v>43.42354</v>
+        <v>43.423540000000003</v>
       </c>
       <c r="D25" s="4">
         <v>-122.6005</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="14">
         <v>7.99221</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="14">
         <v>0.57377</v>
       </c>
-      <c r="G25" s="11">
-        <v>0.7364</v>
-      </c>
-      <c r="H25" s="13">
-        <v>0.9601</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="11">
-        <v>0.8598797</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="G25" s="14">
+        <v>0.73640000000000005</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0.85987970000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="12.75">
       <c r="A26" s="4">
-        <v>2.1679171E7</v>
+        <v>21679171</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="4">
-        <v>43.4222</v>
+        <v>43.422199999999997</v>
       </c>
       <c r="D26" s="4">
-        <v>-122.6008</v>
-      </c>
-      <c r="E26" s="11">
-        <v>5.85058</v>
-      </c>
-      <c r="F26" s="11">
-        <v>0.42596</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0.7799</v>
-      </c>
-      <c r="H26" s="13">
+        <v>-122.60080000000001</v>
+      </c>
+      <c r="E26" s="14">
+        <v>5.8505799999999999</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0.42596000000000001</v>
+      </c>
+      <c r="G26" s="14">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="H26" s="16">
         <v>0.6331</v>
       </c>
-      <c r="I26" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="11">
-        <v>0.8845389</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="I26" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="14">
+        <v>0.88453890000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="12.75">
       <c r="A27" s="4">
-        <v>2.1679176E7</v>
+        <v>21679176</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="4">
-        <v>43.34978</v>
+        <v>43.349780000000003</v>
       </c>
       <c r="D27" s="4">
         <v>-122.7299</v>
       </c>
-      <c r="E27" s="11">
-        <v>8.39331</v>
-      </c>
-      <c r="F27" s="11">
-        <v>0.50257</v>
-      </c>
-      <c r="G27" s="11">
-        <v>0.7181</v>
-      </c>
-      <c r="H27" s="13">
-        <v>0.8805</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="11">
-        <v>0.8492987</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="E27" s="14">
+        <v>8.3933099999999996</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0.50256999999999996</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0.71809999999999996</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0.88049999999999995</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="14">
+        <v>0.84929869999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="12.75">
       <c r="A28" s="4">
-        <v>2.1679177E7</v>
+        <v>21679177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="4">
-        <v>43.4164</v>
+        <v>43.416400000000003</v>
       </c>
       <c r="D28" s="4">
         <v>-122.7799</v>
       </c>
-      <c r="E28" s="11">
-        <v>7.99954</v>
-      </c>
-      <c r="F28" s="11">
+      <c r="E28" s="14">
+        <v>7.9995399999999997</v>
+      </c>
+      <c r="F28" s="14">
         <v>0.43789</v>
       </c>
-      <c r="G28" s="11">
-        <v>0.6935</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0.8137</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="11">
+      <c r="G28" s="14">
+        <v>0.69350000000000001</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0.81369999999999998</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="14">
         <v>0.8348698</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" ht="12.75">
       <c r="A29" s="4">
-        <v>2.1679163E7</v>
+        <v>21679163</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>8</v>
@@ -1802,58 +1856,58 @@
       <c r="D29" s="4">
         <v>-122.4706</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="14">
         <v>6.24369</v>
       </c>
-      <c r="F29" s="11">
-        <v>0.40541</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0.6435</v>
-      </c>
-      <c r="H29" s="13">
-        <v>0.843</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0.8047044</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="F29" s="14">
+        <v>0.40540999999999999</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0.64349999999999996</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="14">
+        <v>0.80470439999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="12.75">
       <c r="A30" s="4">
-        <v>2.1679182E7</v>
+        <v>21679182</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="4">
-        <v>43.2668</v>
+        <v>43.266800000000003</v>
       </c>
       <c r="D30" s="4">
-        <v>-122.5195</v>
-      </c>
-      <c r="E30" s="11">
+        <v>-122.51949999999999</v>
+      </c>
+      <c r="E30" s="14">
         <v>5.57186</v>
       </c>
-      <c r="F30" s="11">
-        <v>0.53864</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0.6974</v>
-      </c>
-      <c r="H30" s="13">
-        <v>0.9918</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="11">
-        <v>0.837174</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="F30" s="14">
+        <v>0.53864000000000001</v>
+      </c>
+      <c r="G30" s="14">
+        <v>0.69740000000000002</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="14">
+        <v>0.83717399999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="12.75">
       <c r="A31" s="4" t="s">
         <v>6</v>
       </c>
@@ -1861,31 +1915,31 @@
         <v>7</v>
       </c>
       <c r="C31" s="4">
-        <v>43.26677</v>
+        <v>43.266770000000001</v>
       </c>
       <c r="D31" s="4">
         <v>-122.5198</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="14">
         <v>7.18668</v>
       </c>
-      <c r="F31" s="11">
-        <v>0.30077</v>
-      </c>
-      <c r="G31" s="11">
-        <v>0.6095</v>
-      </c>
-      <c r="H31" s="13">
-        <v>0.6722</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="11">
-        <v>0.7835614</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="F31" s="14">
+        <v>0.30076999999999998</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0.60950000000000004</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0.67220000000000002</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="14">
+        <v>0.78356139999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="12.75">
       <c r="A32" s="4" t="s">
         <v>18</v>
       </c>
@@ -1893,31 +1947,31 @@
         <v>19</v>
       </c>
       <c r="C32" s="4">
-        <v>43.34983</v>
+        <v>43.349829999999997</v>
       </c>
       <c r="D32" s="4">
         <v>-122.7289</v>
       </c>
-      <c r="E32" s="11">
-        <v>7.61054</v>
-      </c>
-      <c r="F32" s="11">
-        <v>0.58042</v>
-      </c>
-      <c r="G32" s="11">
-        <v>0.7442</v>
-      </c>
-      <c r="H32" s="13">
-        <v>0.9517</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="11">
-        <v>0.8643828</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="E32" s="14">
+        <v>7.6105400000000003</v>
+      </c>
+      <c r="F32" s="14">
+        <v>0.58042000000000005</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0.74419999999999997</v>
+      </c>
+      <c r="H32" s="16">
+        <v>0.95169999999999999</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="14">
+        <v>0.86438280000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="12.75">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
@@ -1925,46 +1979,54 @@
         <v>13</v>
       </c>
       <c r="C33" s="4">
-        <v>43.33228</v>
+        <v>43.332279999999997</v>
       </c>
       <c r="D33" s="4">
         <v>-123.002</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="14">
         <v>7.5949</v>
       </c>
-      <c r="F33" s="11">
-        <v>0.46666</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0.6883</v>
-      </c>
-      <c r="H33" s="13">
-        <v>0.8778</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="11">
-        <v>0.8317779</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
+      <c r="F33" s="14">
+        <v>0.46666000000000002</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0.68830000000000002</v>
+      </c>
+      <c r="H33" s="16">
+        <v>0.87780000000000002</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="14">
+        <v>0.83177789999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1">
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="37" spans="1:10" ht="12.75">
+      <c r="A37" s="10"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A18:J18"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/N. Umpqua 2024 Temperature Summary.xlsx
+++ b/N. Umpqua 2024 Temperature Summary.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\NUmpqua_TempAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E710D8B9-8C5B-4633-83F1-7F3560B0CF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1983F88E-B2AA-4225-AAA6-E86C4E67C6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="2115" windowWidth="21600" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MDMTDaysAbove20" sheetId="1" r:id="rId1"/>
     <sheet name="AirWater Regressions" sheetId="2" r:id="rId2"/>
+    <sheet name="Distance Function" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="56">
   <si>
     <t>Logger ID</t>
   </si>
@@ -149,6 +150,81 @@
   <si>
     <t>MEAN TEMP AIR WATER REGRESSIONS (Air Temp Baseline @ North Umpqua at Steamboat Cr.)</t>
   </si>
+  <si>
+    <t>Call:</t>
+  </si>
+  <si>
+    <t>lm(formula = r2_adjusted ~ distance_air_km, data = distance)</t>
+  </si>
+  <si>
+    <t>Residuals:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Min       1Q   Median       3Q      Max </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.08249 -0.04319  0.00700  0.03669  0.08594 </t>
+  </si>
+  <si>
+    <t>Coefficients:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Estimate Std. Error t value Pr(&gt;|t|)    </t>
+  </si>
+  <si>
+    <t>(Intercept)      0.7027317  0.0222289  31.613 3.77e-12 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distance_air_km -0.0006305  0.0016699  -0.378    0.713    </t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ 1</t>
+  </si>
+  <si>
+    <t>Residual standard error: 0.05087 on 11 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple R-squared:  0.01279,   Adjusted R-squared:  -0.07695 </t>
+  </si>
+  <si>
+    <t>F-statistic: 0.1425 on 1 and 11 DF,  p-value: 0.713</t>
+  </si>
+  <si>
+    <t>R2 ~ distance</t>
+  </si>
+  <si>
+    <t>RSE ~ distance</t>
+  </si>
+  <si>
+    <t>lm(formula = rse ~ distance_air_km, data = distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Min        1Q    Median        3Q       Max </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.215372 -0.050672 -0.008148  0.063265  0.196565 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Estimate Std. Error t value Pr(&gt;|t|)    </t>
+  </si>
+  <si>
+    <t>(Intercept)      0.890872   0.055306  16.108 5.37e-09 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distance_air_km -0.003046   0.004155  -0.733    0.479    </t>
+  </si>
+  <si>
+    <t>Residual standard error: 0.1266 on 11 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple R-squared:  0.04658,   Adjusted R-squared:  -0.04009 </t>
+  </si>
+  <si>
+    <t>F-statistic: 0.5375 on 1 and 11 DF,  p-value: 0.4788</t>
+  </si>
 </sst>
 </file>
 
@@ -158,7 +234,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -229,8 +305,29 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +338,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
         <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -276,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,27 +406,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,7 +1169,7 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -1080,20 +1184,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="3" spans="1:10" ht="12.75">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1229,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="12.75">
       <c r="A4" s="4">
         <v>21433141</v>
       </c>
@@ -1138,26 +1242,26 @@
       <c r="D4" s="4">
         <v>-122.736</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>10.04767</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <v>0.21013000000000001</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="13">
         <v>0.3357</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="14">
         <v>1.3959999999999999</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="15">
+      <c r="I4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="13">
         <v>0.58596280000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="12.75">
       <c r="A5" s="4">
         <v>21433145</v>
       </c>
@@ -1170,26 +1274,26 @@
       <c r="D5" s="4">
         <v>-122.74120000000001</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>10.45234</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>0.21192</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <v>0.31859999999999999</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="14">
         <v>1.462</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="15">
+      <c r="I5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="13">
         <v>0.57135639999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="4">
         <v>21679164</v>
       </c>
@@ -1202,26 +1306,26 @@
       <c r="D6" s="4">
         <v>-122.72920000000001</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>12.00726</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>0.32512000000000002</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="13">
         <v>0.41510000000000002</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="14">
         <v>1.8280000000000001</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="I6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="13">
         <v>0.64946930000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="12.75">
       <c r="A7" s="4">
         <v>21679175</v>
       </c>
@@ -1234,26 +1338,26 @@
       <c r="D7" s="4">
         <v>-122.6037</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>9.6671499999999995</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>0.29327999999999999</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <v>0.45939999999999998</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="14">
         <v>1.5089999999999999</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="15">
+      <c r="I7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="13">
         <v>0.68237020000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="12.75">
       <c r="A8" s="4">
         <v>21679180</v>
       </c>
@@ -1266,26 +1370,26 @@
       <c r="D8" s="4">
         <v>-122.6005</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <v>11.92029</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <v>0.30037999999999998</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="13">
         <v>0.46010000000000001</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="14">
         <v>1.544</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="15">
+      <c r="I8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="13">
         <v>0.68283519999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="12.75">
       <c r="A9" s="4">
         <v>21679171</v>
       </c>
@@ -1298,26 +1402,26 @@
       <c r="D9" s="4">
         <v>-122.60080000000001</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <v>8.2223600000000001</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <v>0.28393000000000002</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="13">
         <v>0.50829999999999997</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="14">
         <v>1.3260000000000001</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="15">
+      <c r="I9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="13">
         <v>0.71689979999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="12.75">
       <c r="A10" s="4">
         <v>21679176</v>
       </c>
@@ -1330,26 +1434,26 @@
       <c r="D10" s="4">
         <v>-122.7299</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <v>12.452669999999999</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <v>0.24559</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="13">
         <v>0.41980000000000001</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="14">
         <v>1.3680000000000001</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="15">
+      <c r="I10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="13">
         <v>0.65306070000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="12.75">
       <c r="A11" s="4">
         <v>21679177</v>
       </c>
@@ -1362,26 +1466,26 @@
       <c r="D11" s="4">
         <v>-122.7799</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>11.12598</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>0.26574999999999999</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="13">
         <v>0.51270000000000004</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="14">
         <v>1.23</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="15">
+      <c r="I11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="13">
         <v>0.71991300000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="12.75">
       <c r="A12" s="4">
         <v>21679163</v>
       </c>
@@ -1394,26 +1498,26 @@
       <c r="D12" s="4">
         <v>-122.4706</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <v>9.8232800000000005</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <v>0.19525999999999999</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="13">
         <v>0.38319999999999999</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="14">
         <v>1.1719999999999999</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="15">
+      <c r="I12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="13">
         <v>0.62472380000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="12.75">
       <c r="A13" s="4">
         <v>21679182</v>
       </c>
@@ -1426,26 +1530,26 @@
       <c r="D13" s="4">
         <v>-122.51949999999999</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="13">
         <v>9.8433899999999994</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <v>0.28819</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="13">
         <v>0.43630000000000002</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="14">
         <v>1.5529999999999999</v>
       </c>
-      <c r="I13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="15">
+      <c r="I13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="13">
         <v>0.66537999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="12.75">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -1458,26 +1562,26 @@
       <c r="D14" s="4">
         <v>-122.5198</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <v>9.9779400000000003</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="13">
         <v>0.12827</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="13">
         <v>0.2954</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="14">
         <v>0.93320000000000003</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="15">
+      <c r="I14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="13">
         <v>0.55091270000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="12.75">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1490,26 +1594,26 @@
       <c r="D15" s="4">
         <v>-122.7289</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="13">
         <v>11.994590000000001</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="13">
         <v>0.29637999999999998</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="13">
         <v>0.43169999999999997</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="14">
         <v>1.6120000000000001</v>
       </c>
-      <c r="I15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="15">
+      <c r="I15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="13">
         <v>0.66195740000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="12.75">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1522,40 +1626,40 @@
       <c r="D16" s="4">
         <v>-123.002</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="13">
         <v>11.1852</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="13">
         <v>0.23103000000000001</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="13">
         <v>0.43159999999999998</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="14">
         <v>1.256</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="15">
+      <c r="I16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="13">
         <v>0.66194350000000002</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="20" spans="1:10" ht="12.75">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1568,26 +1672,26 @@
       <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="12.75">
       <c r="A21" s="4">
         <v>21433141</v>
       </c>
@@ -1600,22 +1704,22 @@
       <c r="D21" s="4">
         <v>-122.736</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>7.0336299999999996</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="12">
         <v>0.38474000000000003</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="12">
         <v>0.65949999999999998</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="14">
         <v>0.77229999999999999</v>
       </c>
-      <c r="I21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="14">
+      <c r="I21" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="12">
         <v>0.81452460000000004</v>
       </c>
     </row>
@@ -1632,22 +1736,22 @@
       <c r="D22" s="4">
         <v>-122.74120000000001</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="12">
         <v>7.1846500000000004</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="12">
         <v>0.40412999999999999</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="12">
         <v>0.63249999999999995</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="14">
         <v>0.86029999999999995</v>
       </c>
-      <c r="I22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="14">
+      <c r="I22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="12">
         <v>0.79797110000000004</v>
       </c>
     </row>
@@ -1664,22 +1768,22 @@
       <c r="D23" s="10">
         <v>-122.72920000000001</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="11">
         <v>7.44</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="11">
         <v>0.61899999999999999</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="12">
         <v>0.71760000000000002</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="14">
         <v>1.085</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="19">
+      <c r="I23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="11">
         <v>0.84899999999999998</v>
       </c>
     </row>
@@ -1696,22 +1800,22 @@
       <c r="D24" s="4">
         <v>-122.6037</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="12">
         <v>6.5757700000000003</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="12">
         <v>0.49054999999999999</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="12">
         <v>0.73080000000000001</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="14">
         <v>0.83250000000000002</v>
       </c>
-      <c r="I24" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="14">
+      <c r="I24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="12">
         <v>0.85669890000000004</v>
       </c>
     </row>
@@ -1728,22 +1832,22 @@
       <c r="D25" s="4">
         <v>-122.6005</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="12">
         <v>7.99221</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="12">
         <v>0.57377</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="12">
         <v>0.73640000000000005</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="14">
         <v>0.96009999999999995</v>
       </c>
-      <c r="I25" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="14">
+      <c r="I25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="12">
         <v>0.85987970000000002</v>
       </c>
     </row>
@@ -1760,22 +1864,22 @@
       <c r="D26" s="4">
         <v>-122.60080000000001</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="12">
         <v>5.8505799999999999</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="12">
         <v>0.42596000000000001</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="12">
         <v>0.77990000000000004</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="14">
         <v>0.6331</v>
       </c>
-      <c r="I26" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="14">
+      <c r="I26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="12">
         <v>0.88453890000000002</v>
       </c>
     </row>
@@ -1792,22 +1896,22 @@
       <c r="D27" s="4">
         <v>-122.7299</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="12">
         <v>8.3933099999999996</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="12">
         <v>0.50256999999999996</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="12">
         <v>0.71809999999999996</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="14">
         <v>0.88049999999999995</v>
       </c>
-      <c r="I27" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="14">
+      <c r="I27" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="12">
         <v>0.84929869999999996</v>
       </c>
     </row>
@@ -1824,22 +1928,22 @@
       <c r="D28" s="4">
         <v>-122.7799</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="12">
         <v>7.9995399999999997</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="12">
         <v>0.43789</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="12">
         <v>0.69350000000000001</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="14">
         <v>0.81369999999999998</v>
       </c>
-      <c r="I28" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="14">
+      <c r="I28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="12">
         <v>0.8348698</v>
       </c>
     </row>
@@ -1856,22 +1960,22 @@
       <c r="D29" s="4">
         <v>-122.4706</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="12">
         <v>6.24369</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="12">
         <v>0.40540999999999999</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="12">
         <v>0.64349999999999996</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="14">
         <v>0.84299999999999997</v>
       </c>
-      <c r="I29" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="14">
+      <c r="I29" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="12">
         <v>0.80470439999999999</v>
       </c>
     </row>
@@ -1888,22 +1992,22 @@
       <c r="D30" s="4">
         <v>-122.51949999999999</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="12">
         <v>5.57186</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="12">
         <v>0.53864000000000001</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="12">
         <v>0.69740000000000002</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="14">
         <v>0.99180000000000001</v>
       </c>
-      <c r="I30" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="14">
+      <c r="I30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="12">
         <v>0.83717399999999997</v>
       </c>
     </row>
@@ -1920,22 +2024,22 @@
       <c r="D31" s="4">
         <v>-122.5198</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="12">
         <v>7.18668</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="12">
         <v>0.30076999999999998</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="12">
         <v>0.60950000000000004</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="14">
         <v>0.67220000000000002</v>
       </c>
-      <c r="I31" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="14">
+      <c r="I31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="12">
         <v>0.78356139999999996</v>
       </c>
     </row>
@@ -1952,22 +2056,22 @@
       <c r="D32" s="4">
         <v>-122.7289</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="12">
         <v>7.6105400000000003</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="12">
         <v>0.58042000000000005</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="12">
         <v>0.74419999999999997</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H32" s="14">
         <v>0.95169999999999999</v>
       </c>
-      <c r="I32" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="14">
+      <c r="I32" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="12">
         <v>0.86438280000000001</v>
       </c>
     </row>
@@ -1984,32 +2088,24 @@
       <c r="D33" s="4">
         <v>-123.002</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="12">
         <v>7.5949</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="12">
         <v>0.46666000000000002</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="12">
         <v>0.68830000000000002</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="14">
         <v>0.87780000000000002</v>
       </c>
-      <c r="I33" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="14">
+      <c r="I33" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="12">
         <v>0.83177789999999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
     </row>
     <row r="37" spans="1:10" ht="12.75">
       <c r="A37" s="10"/>
@@ -2029,4 +2125,190 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D679502E-A66B-432A-BBA5-7331ECBEF912}">
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75">
+      <c r="A1" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="17"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="17"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="17"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75">
+      <c r="A22" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="17"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="17"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="17"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/N. Umpqua 2024 Temperature Summary.xlsx
+++ b/N. Umpqua 2024 Temperature Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\NUmpqua_TempAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1983F88E-B2AA-4225-AAA6-E86C4E67C6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E232EE-5AED-4F3B-A5D7-733BB54F3489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MDMTDaysAbove20" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="57">
   <si>
     <t>Logger ID</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>F-statistic: 0.5375 on 1 and 11 DF,  p-value: 0.4788</t>
+  </si>
+  <si>
+    <t>MEAN TEMP AIR WATER REGRESSIONS (Air Temp Baseline @ Copeland Cr.)</t>
   </si>
 </sst>
 </file>
@@ -415,8 +418,6 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -428,6 +429,8 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1167,15 +1170,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
@@ -1184,18 +1187,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
       <c r="A3" s="1" t="s">
@@ -1646,18 +1649,18 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="20" spans="1:10" ht="12.75">
       <c r="A20" s="1" t="s">
@@ -2106,6 +2109,20 @@
       <c r="J33" s="12">
         <v>0.83177789999999996</v>
       </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A36" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="1:10" ht="12.75">
       <c r="A37" s="10"/>
@@ -2118,10 +2135,103 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
     </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="4">
+        <v>43.266770000000001</v>
+      </c>
+      <c r="D39" s="4">
+        <v>-122.5198</v>
+      </c>
+      <c r="E39" s="12">
+        <v>7.2084200000000003</v>
+      </c>
+      <c r="F39" s="12">
+        <v>0.30706</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0.76570000000000005</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0.52059999999999995</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="12">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A40" s="4">
+        <v>21679163</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4">
+        <v>43.28472</v>
+      </c>
+      <c r="D40" s="4">
+        <v>-122.4706</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A41" s="4">
+        <v>21679182</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="4">
+        <v>43.266800000000003</v>
+      </c>
+      <c r="D41" s="4">
+        <v>-122.51949999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A36:J36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2131,179 +2241,179 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D679502E-A66B-432A-BBA5-7331ECBEF912}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="20"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="20"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="17"/>
+      <c r="A5" s="15"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="17"/>
+      <c r="A9" s="15"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="17"/>
+      <c r="A16" s="15"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="17"/>
+      <c r="A26" s="15"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="17"/>
+      <c r="A30" s="15"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="17"/>
+      <c r="A37" s="15"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="17" t="s">
         <v>55</v>
       </c>
     </row>

--- a/N. Umpqua 2024 Temperature Summary.xlsx
+++ b/N. Umpqua 2024 Temperature Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\NUmpqua_TempAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E232EE-5AED-4F3B-A5D7-733BB54F3489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32129F2-69C0-4B36-B191-449B1A7B3E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="57">
   <si>
     <t>Logger ID</t>
   </si>
@@ -1173,7 +1173,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2212,6 +2212,24 @@
       <c r="D40" s="4">
         <v>-122.4706</v>
       </c>
+      <c r="E40" s="12">
+        <v>6.8121999999999998</v>
+      </c>
+      <c r="F40" s="12">
+        <v>0.38641999999999999</v>
+      </c>
+      <c r="G40" s="12">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0.76939999999999997</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="12">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1">
       <c r="A41" s="4">
@@ -2225,6 +2243,24 @@
       </c>
       <c r="D41" s="4">
         <v>-122.51949999999999</v>
+      </c>
+      <c r="E41" s="12">
+        <v>6.3476699999999999</v>
+      </c>
+      <c r="F41" s="12">
+        <v>0.51236999999999999</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0.75870000000000004</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0.88560000000000005</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="12">
+        <v>0.873</v>
       </c>
     </row>
   </sheetData>
